--- a/medicine/Enfance/Qwant_Junior/Qwant_Junior.xlsx
+++ b/medicine/Enfance/Qwant_Junior/Qwant_Junior.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Qwant Junior est un moteur de recherche adapté aux enfants âgés de 6  à   12 ans proposé par Qwant[1]. Ce moteur ne contient aucune publicité et filtre les résultats pour ne pas montrer les contenus violents ou pornographiques et les liens de commerce en ligne.
-En plus des caractéristiques de base, le moteur possède une liste noire de sites jugés violents ou pornographiques, basée sur celle établie par l'université de Toulouse, et bloque les liens de commerce en ligne[2]. En revanche, il met en avant les sites et les « Carnets » jugés pédagogiques, tout comme les actualités présentes sur sa page d'accueil, rédigées par un journaliste, sont adaptées à ce public[2].
-Ce moteur de recherche a été validé par l'Éducation nationale, qui souhaite que les écoles et collèges le privilégient[1]. Aujourd'hui 9 académies sur 14 ont adopté Qwant Junior. C'est également le moteur de recherche par défaut de PrimTux distribution GNU/Linux éducative[3].
+Qwant Junior est un moteur de recherche adapté aux enfants âgés de 6  à   12 ans proposé par Qwant. Ce moteur ne contient aucune publicité et filtre les résultats pour ne pas montrer les contenus violents ou pornographiques et les liens de commerce en ligne.
+En plus des caractéristiques de base, le moteur possède une liste noire de sites jugés violents ou pornographiques, basée sur celle établie par l'université de Toulouse, et bloque les liens de commerce en ligne. En revanche, il met en avant les sites et les « Carnets » jugés pédagogiques, tout comme les actualités présentes sur sa page d'accueil, rédigées par un journaliste, sont adaptées à ce public.
+Ce moteur de recherche a été validé par l'Éducation nationale, qui souhaite que les écoles et collèges le privilégient. Aujourd'hui 9 académies sur 14 ont adopté Qwant Junior. C'est également le moteur de recherche par défaut de PrimTux distribution GNU/Linux éducative.
 </t>
         </is>
       </c>
@@ -514,18 +526,20 @@
           <t>Chronologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Début 2015 des tests de Qwant Junior sont réalisés en collaboration avec l'Éducation Nationale.
-Le 4 décembre 2015 Qwant Junior est lancé[4].
-Le 1er décembre 2016, Qwant Junior lance un calendrier de l'Avent dans le but de faire découvrir le codage informatique aux enfants de 7 à 13 ans. Chaque jour du 1er au 24 décembre les enfants doivent avancer dans la création d'un jeu de Noël. La création de ce jeu se déroule sur la plateforme de codage Scratch avec les indications données sur la page d'accueil de Qwant Junior[5].
-Le 30 juin 2017, Qwant Junior annonce la sortie d'un jeu sur mobile : Les Incollables Qwant Junior. Ce jeu offre 250 quiz sur le thème d'Internet et de tout ce qui tourne autour[6].
-Le 26 mars 2018, Qwant lance l'application mobile Qwant Junior[7].
-Le 22 mai 2018, Qwant Junior annonce un partenariat avec Universalis dans le but d'enrichir ses résultats[8].
-Le 1er juin 2018, Qwant Junior et Blacknut s'associent pour offrir 2 heures de jeux vidéo par semaine aux utilisateurs de Qwant Junior. Les jeux vidéo sont adaptés aux 6-12 ans et tout ceci se fait dans le respect de la vie privée[9].
-Le 21 novembre 2018, Qwant Junior devient le moteur de recherche par défaut de l'application Bayam destinée aux enfants développée par Bayard[10].
+Le 4 décembre 2015 Qwant Junior est lancé.
+Le 1er décembre 2016, Qwant Junior lance un calendrier de l'Avent dans le but de faire découvrir le codage informatique aux enfants de 7 à 13 ans. Chaque jour du 1er au 24 décembre les enfants doivent avancer dans la création d'un jeu de Noël. La création de ce jeu se déroule sur la plateforme de codage Scratch avec les indications données sur la page d'accueil de Qwant Junior.
+Le 30 juin 2017, Qwant Junior annonce la sortie d'un jeu sur mobile : Les Incollables Qwant Junior. Ce jeu offre 250 quiz sur le thème d'Internet et de tout ce qui tourne autour.
+Le 26 mars 2018, Qwant lance l'application mobile Qwant Junior.
+Le 22 mai 2018, Qwant Junior annonce un partenariat avec Universalis dans le but d'enrichir ses résultats.
+Le 1er juin 2018, Qwant Junior et Blacknut s'associent pour offrir 2 heures de jeux vidéo par semaine aux utilisateurs de Qwant Junior. Les jeux vidéo sont adaptés aux 6-12 ans et tout ceci se fait dans le respect de la vie privée.
+Le 21 novembre 2018, Qwant Junior devient le moteur de recherche par défaut de l'application Bayam destinée aux enfants développée par Bayard.
 Le 16 octobre 2019, Qwant Junior revoit son design, toute l'interface a été repensée. Des fonctionnalités sont ajoutées, comme des ressources d'exercices ou de leçons, des jeux, des vidéos à visée éducative ou encore des activités. Le tout privilégiant les sites sans publicité.
-En mars 2023, Qwant Junior annonce son partenariat avec l'application BayaM, conçue par les éditeurs Bayard Jeunesse et Milan, pour proposer des contenus ludo-éducatifs aux 6-12 ans. Le moteur de recherche pour enfants revoit également son design[11].
+En mars 2023, Qwant Junior annonce son partenariat avec l'application BayaM, conçue par les éditeurs Bayard Jeunesse et Milan, pour proposer des contenus ludo-éducatifs aux 6-12 ans. Le moteur de recherche pour enfants revoit également son design.
 </t>
         </is>
       </c>
@@ -554,7 +568,9 @@
           <t>Identité visuelle</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Logo de Qwant Junior du 4 décembre 2015 au 4 décembre 2018
@@ -590,10 +606,12 @@
           <t>Statistiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Début 2018, Qwant Junior comptabilisait environ 300 000 visiteurs uniques.
-En Avril 2020, le moteur de recherche adapté aux enfants en comptabilisait environ 800 000. La quasi-totalité de son trafic vient de France (96%)[12].
+En Avril 2020, le moteur de recherche adapté aux enfants en comptabilisait environ 800 000. La quasi-totalité de son trafic vient de France (96%).
 Historique des visites mensuelles
 </t>
         </is>
